--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-754372.7651461377</v>
+        <v>-756260.3466625394</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>291.0534848728591</v>
+        <v>207.9431969866952</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>15.32853348475569</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>54.42397186352292</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>294.8897085110241</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>237.4552014283703</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>57.73991206543102</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>86.85904583823142</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>170.3632832515928</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>119.7641616298976</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>84.22139172498662</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>10.46815663221254</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>119.8338438389644</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.62361933169083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>157.2425576766692</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>37.75862782377278</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>22.92132682626382</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>215.0546805228902</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>157.2425576766703</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.4898845065128</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>170.5809693952287</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>139.4374166734251</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965561</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801223</v>
+        <v>19.67402846882308</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943743</v>
+        <v>90.2177913943745</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348208</v>
       </c>
       <c r="H31" t="n">
-        <v>3.522546109378757</v>
+        <v>93.71057173897938</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571505</v>
+        <v>55.21598883571523</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523585</v>
+        <v>54.76109577523602</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550465</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298325</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700206</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952713</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080343</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604804</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.381396723538</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463158</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463131</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1663.420136195577</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="C2" t="n">
-        <v>1663.420136195577</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="D2" t="n">
-        <v>1305.154437588826</v>
+        <v>681.9504232420718</v>
       </c>
       <c r="E2" t="n">
-        <v>919.366184990582</v>
+        <v>681.9504232420718</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4361,19 +4361,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y2" t="n">
-        <v>2050.019976259699</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="3">
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>272.8312459770189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>272.8312459770189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>272.8312459770189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>272.8312459770189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>272.8312459770189</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>272.8312459770189</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1893.744059709405</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1893.744059709405</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.692722656504</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.692722656504</v>
+        <v>1893.744059709405</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1893.744059709405</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>259.1560728187102</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>259.1560728187102</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>259.1560728187102</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>259.1560728187102</v>
       </c>
       <c r="W7" t="n">
-        <v>385.7080860629399</v>
+        <v>259.1560728187102</v>
       </c>
       <c r="X7" t="n">
-        <v>385.7080860629399</v>
+        <v>259.1560728187102</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.7080860629399</v>
+        <v>259.1560728187102</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
         <v>799.1015098861748</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2521.146500912455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.384715550547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.321828206976</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.553172936862</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X8" t="n">
-        <v>1210.087414675782</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y8" t="n">
-        <v>1210.087414675782</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.9102127870964</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="C10" t="n">
-        <v>494.9102127870964</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D10" t="n">
-        <v>494.9102127870964</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E10" t="n">
-        <v>494.9102127870964</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>494.9102127870964</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>494.9102127870964</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>494.9102127870964</v>
+        <v>717.5550886183407</v>
       </c>
       <c r="V10" t="n">
-        <v>494.9102127870964</v>
+        <v>717.5550886183407</v>
       </c>
       <c r="W10" t="n">
-        <v>494.9102127870964</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="X10" t="n">
-        <v>494.9102127870964</v>
+        <v>428.1379185813802</v>
       </c>
       <c r="Y10" t="n">
-        <v>494.9102127870964</v>
+        <v>428.1379185813802</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.0663679705859</v>
+        <v>544.6416868225886</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>544.6416868225886</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1377.871983851878</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1377.871983851878</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1088.743345065436</v>
       </c>
       <c r="V13" t="n">
-        <v>933.236668829393</v>
+        <v>834.0588568595492</v>
       </c>
       <c r="W13" t="n">
-        <v>643.8194987924325</v>
+        <v>544.6416868225886</v>
       </c>
       <c r="X13" t="n">
-        <v>643.8194987924325</v>
+        <v>544.6416868225886</v>
       </c>
       <c r="Y13" t="n">
-        <v>595.7148328008255</v>
+        <v>544.6416868225886</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,16 +5273,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515096</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5346,34 +5346,34 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>256.0479578003558</v>
+        <v>282.2470670630172</v>
       </c>
       <c r="C16" t="n">
-        <v>256.0479578003558</v>
+        <v>282.2470670630172</v>
       </c>
       <c r="D16" t="n">
-        <v>256.0479578003558</v>
+        <v>282.2470670630172</v>
       </c>
       <c r="E16" t="n">
-        <v>256.0479578003558</v>
+        <v>282.2470670630172</v>
       </c>
       <c r="F16" t="n">
-        <v>256.0479578003558</v>
+        <v>135.3571195651068</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>135.3571195651068</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688109</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799402</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947123</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974671</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980067</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347412</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1275.130855347412</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655734</v>
+        <v>1020.446367141525</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286129</v>
+        <v>731.0291971045647</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305955</v>
+        <v>503.0396462065473</v>
       </c>
       <c r="Y16" t="n">
-        <v>437.6964226305955</v>
+        <v>282.2470670630172</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514075</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,34 +5531,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5583,28 +5583,28 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>410.8745301331627</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.2482765610113</v>
+        <v>565.2896273329893</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331044</v>
+        <v>565.2896273329893</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207686</v>
+        <v>415.1729879206536</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>267.2598943382607</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>120.3699468403503</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799367</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="X19" t="n">
-        <v>1281.689320534781</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="Y19" t="n">
-        <v>1060.896741391251</v>
+        <v>565.2896273329893</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,25 +5774,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5820,28 +5820,28 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O21" t="n">
         <v>1808.163466324677</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765184</v>
+        <v>1050.95676543139</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706316</v>
+        <v>796.2722772255034</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336709</v>
+        <v>506.8551071885428</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028583</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,34 +5981,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6057,31 +6057,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636248</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.78763177146</v>
+        <v>1090.10087974468</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655735</v>
+        <v>835.4163915387937</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286129</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305955</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404655</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>559.3999450277973</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>806.1650729342614</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M27" t="n">
-        <v>1113.485206214223</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.347833878256</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1818.397748747284</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688073</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655736</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>665.685973528613</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>524.8400981009108</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>524.8400981009108</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1427.741252113633</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1757.603879777666</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O30" t="n">
-        <v>2037.143944996363</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030855</v>
+        <v>565.4200295030828</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2447118565494</v>
+        <v>565.4200295030828</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2447118565494</v>
+        <v>471.0642553721174</v>
       </c>
       <c r="E31" t="n">
-        <v>360.092483555527</v>
+        <v>451.1914993430031</v>
       </c>
       <c r="F31" t="n">
-        <v>268.9634013389873</v>
+        <v>360.0624171264632</v>
       </c>
       <c r="G31" t="n">
-        <v>156.5489449401786</v>
+        <v>247.6479607276542</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>152.9908175569679</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933496</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.45090536675</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962047</v>
+        <v>997.6688721962041</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056072</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899268</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096191</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.628130167067</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356661996</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.33673373748</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818916</v>
+        <v>902.6804289818893</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365245</v>
+        <v>730.4517433652425</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030855</v>
+        <v>565.4200295030828</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6722,10 +6722,10 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982976</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,40 +6914,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6959,25 +6959,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,43 +7151,43 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7196,25 +7196,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>339.750213104625</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254958</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7418,19 +7418,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>190.6805289025651</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>339.750213104625</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7640,37 +7640,37 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>190.6805289025651</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>339.750213104625</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,19 +9243,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,13 +9486,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>148.2747143566559</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231146</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>76.43196988338542</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305215</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>52.49733361305213</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>52.49733361305213</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>78.08696614463885</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>170.961034020404</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.251010786708353</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>111.1552005437633</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,10 +23704,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>143.5722416371137</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>10.65497486614699</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>64.30500338171896</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338594</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518764</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.00368395686604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>86.27223871561205</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533806</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700711</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965541</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>71.55667754918935</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>90.18802562960043</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26323,16 +26323,16 @@
         <v>195514.5298688544</v>
       </c>
       <c r="F2" t="n">
-        <v>195514.5298688544</v>
+        <v>195514.5298688545</v>
       </c>
       <c r="G2" t="n">
-        <v>195514.5298688544</v>
+        <v>195514.5298688545</v>
       </c>
       <c r="H2" t="n">
         <v>195514.5298688544</v>
       </c>
       <c r="I2" t="n">
-        <v>195514.5298688544</v>
+        <v>195514.5298688545</v>
       </c>
       <c r="J2" t="n">
         <v>195514.5298688544</v>
@@ -26350,10 +26350,10 @@
         <v>205260.4424660711</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.6053028454</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086697</v>
+        <v>10342.90680086711</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284543</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.60758687075</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22174.60758687075</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="F4" t="n">
-        <v>22174.60758687079</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687077</v>
-      </c>
       <c r="H4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106721</v>
+        <v>40339.23010106713</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
+        <v>44593.39482819117</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-633199.3825984076</v>
+        <v>-633199.3825984075</v>
       </c>
       <c r="C6" t="n">
-        <v>-43231.50338386305</v>
+        <v>-43231.50338386306</v>
       </c>
       <c r="D6" t="n">
         <v>-43231.50338386311</v>
       </c>
       <c r="E6" t="n">
-        <v>-443807.4401436291</v>
+        <v>-443904.8992696013</v>
       </c>
       <c r="F6" t="n">
-        <v>81352.59633326702</v>
+        <v>81255.13720729497</v>
       </c>
       <c r="G6" t="n">
-        <v>81352.59633326705</v>
+        <v>81255.13720729497</v>
       </c>
       <c r="H6" t="n">
-        <v>81352.59633326699</v>
+        <v>81255.13720729492</v>
       </c>
       <c r="I6" t="n">
-        <v>81352.59633326705</v>
+        <v>81255.13720729497</v>
       </c>
       <c r="J6" t="n">
-        <v>-95070.62285932605</v>
+        <v>-95168.08198529818</v>
       </c>
       <c r="K6" t="n">
-        <v>22281.02473849975</v>
+        <v>22262.53100056568</v>
       </c>
       <c r="L6" t="n">
-        <v>52609.0350169875</v>
+        <v>52609.03501698746</v>
       </c>
       <c r="M6" t="n">
-        <v>-71849.07341598268</v>
+        <v>-71849.07341598258</v>
       </c>
       <c r="N6" t="n">
-        <v>62951.94181785444</v>
+        <v>62951.94181785457</v>
       </c>
       <c r="O6" t="n">
-        <v>62951.94181785453</v>
+        <v>62951.9418178546</v>
       </c>
       <c r="P6" t="n">
-        <v>18789.33651500885</v>
+        <v>18789.33651500917</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.183716261483379e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.183716261483379e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.183716261483379e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.183716261483379e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.183716261483379e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964064</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.183716261483379e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108372</v>
+        <v>12.92863350108389</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855678</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.183716261483379e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
     </row>
     <row r="3">
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>115.8225608688523</v>
+        <v>198.9328487550162</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>130.0925145381755</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>197.7136714603051</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,10 +27619,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>59.79333310965882</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>111.7857672890427</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>88.69405058113816</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>199.6639524983596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>212.3705584118878</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>96.68415872776023</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>127.9241472250323</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>275.8137176097652</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3.780087354243733e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855675</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299144</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415072</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>274.9155166742619</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556558</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556558</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>298.8501529445951</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>287.7526615081887</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>283.5253848149101</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412246</v>
+        <v>67.71102679412229</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584673</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084853</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075293</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341604</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403575</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043169</v>
+        <v>94.42895660043152</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009914</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>94.40751256795885</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>94.40751256795885</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
